--- a/openpy_fx_tools_dss/Examples/123Bus/xlsx_files/BBDD_DSS_123BusIEEE.xlsx
+++ b/openpy_fx_tools_dss/Examples/123Bus/xlsx_files/BBDD_DSS_123BusIEEE.xlsx
@@ -4492,7 +4492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |1.49778316105066E-305 0 1.49777009161909E-305]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |1.37463500341945E-305 0 1.3746233119172E-305]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
